--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.78859056403513</v>
+        <v>37.94598172789252</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.78859056403513</v>
+        <v>37.94598172789252</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.56111301453267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.69023945846941</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610693</v>
+        <v>22.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.03093082157837</v>
+        <v>29.15133323620116</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.44155308712504</v>
+        <v>22.46981780704569</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.15133323620116</v>
+        <v>29.26212655427378</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>179.0150000000006</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0900000000007</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>192.9250000000006</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>190.0900000000007</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>189.2700000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.295000000001</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.910000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.085000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>179.0150000000006</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>181.0900000000007</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>192.9250000000006</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>190.0900000000007</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>189.2700000000006</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>85.68999999999978</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.85999999999979</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.12999999999978</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>89.87499999999979</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>86.53999999999978</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>45.6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>38.72499999999985</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>42.39499999999985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>38.17499999999986</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>41.26499999999986</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
